--- a/fig5.xlsx
+++ b/fig5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olaaaa/Desktop/定向选育/非酒精性脂肪肝/Host-Mediated Probiotic Optimization for NAFLD/数据上传/github/fig5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D840CD3-9391-4241-99DC-D618A5A99521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86103B06-1F00-0246-A0E3-3FBAF77109DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21860" yWindow="2040" windowWidth="27280" windowHeight="24620" xr2:uid="{6AE91134-810C-6041-956C-77BC510B4D46}"/>
+    <workbookView xWindow="21860" yWindow="2040" windowWidth="27280" windowHeight="24620" activeTab="1" xr2:uid="{6AE91134-810C-6041-956C-77BC510B4D46}"/>
   </bookViews>
   <sheets>
     <sheet name="5c" sheetId="15" r:id="rId1"/>
@@ -714,14 +714,14 @@
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sd</t>
   </si>
   <si>
     <t>group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>group1</t>
@@ -737,35 +737,35 @@
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>group1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>h22b656</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>group2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>w5s9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>group3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>control</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>group4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A204</t>
@@ -804,14 +804,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -856,6 +848,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -884,23 +883,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,663 +1217,663 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39859C2-5B18-4243-A0A9-1858C0D3FABA}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>16.856670000000001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>2.0857293000000001</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>20.954999999999998</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.86627359999999998</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>22.88833</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.88153090000000001</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>23.9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.85809089999999999</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>24.855</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0.82988550000000005</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>25.773330000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>1.0455748</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>27.215</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0.85230859999999997</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>27.811669999999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0.69929730000000001</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>28.535</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>0.78764840000000003</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>18.748329999999999</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.58571039999999996</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>20.563330000000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.95759419999999995</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>22.163329999999998</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>1.2799635</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>23.004999999999999</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1.5894244</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>23.91667</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>1.5793374</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>24.69333</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>1.8896101999999999</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>6</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>26.10333</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>1.7592232999999999</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>7</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>26.70167</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>2.2917977</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>8</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>26.883330000000001</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>2.3458275</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>0</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>17.95833</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>1.4363204999999999</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>20.426670000000001</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>0.5740267</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>21.563330000000001</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>0.57028650000000003</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>3</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>22.465</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>0.55319980000000002</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>23.706669999999999</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>0.76727219999999996</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>5</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>24.211670000000002</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>0.85223040000000005</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>6</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>25.645</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>0.84296499999999996</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>7</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>25.338329999999999</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>0.93751620000000002</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>8</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>25.713329999999999</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>0.55618939999999994</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>18.245000000000001</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>0.96363370000000004</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>1</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>18.293330000000001</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>1.3651325000000001</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>2</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>19.95</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>1.5949796000000001</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>3</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>21.046669999999999</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>1.7364869000000001</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>4</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>21.98</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>1.7806403</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>23.226669999999999</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>2.1437412999999998</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>6</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>24.135000000000002</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>2.1014542999999999</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>7</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>23.961670000000002</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>1.9183682</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>8</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>23.86</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>1.9339907000000001</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -1889,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7744A405-DE72-D946-A096-BD52DAC0D966}">
   <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1905,14 +1904,14 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -1927,14 +1926,14 @@
       <c r="D2" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -1949,14 +1948,14 @@
       <c r="D3" t="s">
         <v>225</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -1971,14 +1970,14 @@
       <c r="D4" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -1993,8 +1992,8 @@
       <c r="D5" t="s">
         <v>225</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -3190,7 +3189,7 @@
       <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="7">
         <v>1.553987</v>
       </c>
       <c r="C91" t="s">
@@ -3204,7 +3203,7 @@
       <c r="A92" t="s">
         <v>100</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="7">
         <v>1.538333</v>
       </c>
       <c r="C92" t="s">
@@ -3218,7 +3217,7 @@
       <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="7">
         <v>3.7967369999999998</v>
       </c>
       <c r="C93" t="s">
@@ -3232,7 +3231,7 @@
       <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="7">
         <v>1.881291</v>
       </c>
       <c r="C94" t="s">
@@ -3246,7 +3245,7 @@
       <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="7">
         <v>1.8300609999999999</v>
       </c>
       <c r="C95" t="s">
@@ -3260,7 +3259,7 @@
       <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="7">
         <v>1.6137550000000001</v>
       </c>
       <c r="C96" t="s">
